--- a/inst/extdata/okap.xlsx
+++ b/inst/extdata/okap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t xml:space="preserve">neighborho</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">ranking</t>
   </si>
   <si>
-    <t xml:space="preserve">sup_bati</t>
+    <t xml:space="preserve">sup_bati_km2</t>
   </si>
   <si>
     <t xml:space="preserve">density</t>
@@ -83,12 +83,6 @@
     <t xml:space="preserve">most dense</t>
   </si>
   <si>
-    <t xml:space="preserve">bad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not allowed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carénage</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t xml:space="preserve">somewhat dense</t>
   </si>
   <si>
-    <t xml:space="preserve">good</t>
-  </si>
-  <si>
     <t xml:space="preserve">group</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">dense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allowed</t>
   </si>
   <si>
     <t xml:space="preserve">Bel Air</t>
@@ -871,13 +859,9 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
+      <c r="N2"/>
       <c r="O2"/>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
+      <c r="P2"/>
       <c r="Q2"/>
       <c r="R2" t="n">
         <v>5</v>
@@ -891,7 +875,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>0.960959550203662</v>
@@ -915,7 +899,7 @@
         <v>5.92857142857143</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
         <v>3.9</v>
@@ -924,17 +908,13 @@
         <v>0.051</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="n">
         <v>2</v>
@@ -948,7 +928,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>0.390150696266139</v>
@@ -981,15 +961,11 @@
         <v>0.16</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
+      <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="n">
         <v>4</v>
@@ -1003,13 +979,13 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
         <v>0.267519623586543</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1020,9 +996,7 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1034,13 +1008,13 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
         <v>0.578471161474015</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1051,9 +1025,7 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6" t="s">
-        <v>23</v>
-      </c>
+      <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
@@ -1065,7 +1037,7 @@
         <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
         <v>0.414145635313275</v>
@@ -1098,15 +1070,11 @@
         <v>0.139</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N7"/>
       <c r="O7"/>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
+      <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="n">
         <v>4</v>
@@ -1120,7 +1088,7 @@
         <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
         <v>0.599186759324364</v>
@@ -1141,15 +1109,11 @@
         <v>0.019</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N8"/>
       <c r="O8"/>
-      <c r="P8" t="s">
-        <v>24</v>
-      </c>
+      <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="n">
         <v>1</v>
@@ -1163,7 +1127,7 @@
         <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
         <v>2.95059217498133</v>
@@ -1177,22 +1141,18 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9"/>
       <c r="L9" t="n">
         <v>0.127</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="s">
-        <v>40</v>
-      </c>
+      <c r="P9"/>
       <c r="Q9"/>
       <c r="R9" t="n">
         <v>3</v>
@@ -1206,7 +1166,7 @@
         <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
         <v>0.693032152455266</v>
@@ -1230,7 +1190,7 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
@@ -1239,19 +1199,15 @@
         <v>0.197</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N10"/>
       <c r="O10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P10"/>
       <c r="Q10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R10" t="n">
         <v>4</v>
@@ -1265,7 +1221,7 @@
         <v>282</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
         <v>0.92774710061408</v>
@@ -1300,13 +1256,9 @@
       <c r="M11" t="s">
         <v>22</v>
       </c>
-      <c r="N11" t="s">
-        <v>23</v>
-      </c>
+      <c r="N11"/>
       <c r="O11"/>
-      <c r="P11" t="s">
-        <v>24</v>
-      </c>
+      <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="n">
         <v>5</v>
@@ -1320,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>0.597368034174403</v>
@@ -1355,13 +1307,9 @@
       <c r="M12" t="s">
         <v>22</v>
       </c>
-      <c r="N12" t="s">
-        <v>23</v>
-      </c>
+      <c r="N12"/>
       <c r="O12"/>
-      <c r="P12" t="s">
-        <v>24</v>
-      </c>
+      <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="n">
         <v>5</v>
@@ -1375,13 +1323,13 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
         <v>2.16874239732936</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -1392,9 +1340,7 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" t="s">
-        <v>23</v>
-      </c>
+      <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
@@ -1406,13 +1352,13 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
         <v>0.280951330715888</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1423,9 +1369,7 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" t="s">
-        <v>23</v>
-      </c>
+      <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
@@ -1437,13 +1381,13 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
         <v>0.354796381067578</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -1454,9 +1398,7 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" t="s">
-        <v>23</v>
-      </c>
+      <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
@@ -1468,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
         <v>0.104790201046985</v>
@@ -1492,7 +1434,7 @@
         <v>4.5</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K16" t="n">
         <v>3.9</v>
@@ -1501,19 +1443,15 @@
         <v>0.026</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P16"/>
       <c r="Q16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R16" t="n">
         <v>1</v>
@@ -1527,13 +1465,13 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>1.10917995566597</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -1544,9 +1482,7 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" t="s">
-        <v>23</v>
-      </c>
+      <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
@@ -1558,13 +1494,13 @@
         <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" t="n">
         <v>4.22879869973742</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -1575,9 +1511,7 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" t="s">
-        <v>23</v>
-      </c>
+      <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
@@ -1589,7 +1523,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
         <v>0.49361056279501</v>
@@ -1613,7 +1547,7 @@
         <v>6.85714285714286</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1622,19 +1556,15 @@
         <v>0.067</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19" t="s">
         <v>26</v>
       </c>
-      <c r="O19" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" t="s">
-        <v>24</v>
-      </c>
+      <c r="P19"/>
       <c r="Q19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R19" t="n">
         <v>2</v>
@@ -1648,13 +1578,13 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>0.417729568674386</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -1665,9 +1595,7 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
@@ -1679,13 +1607,13 @@
         <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>2.21373798609378</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -1696,9 +1624,7 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21" t="s">
-        <v>23</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
@@ -1710,13 +1636,13 @@
         <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
         <v>2.01610167344917</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1727,9 +1653,7 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22" t="s">
-        <v>23</v>
-      </c>
+      <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
@@ -1741,7 +1665,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
         <v>0.414145635313275</v>
@@ -1774,17 +1698,13 @@
         <v>0.139</v>
       </c>
       <c r="M23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N23"/>
       <c r="O23"/>
-      <c r="P23" t="s">
-        <v>24</v>
-      </c>
+      <c r="P23"/>
       <c r="Q23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R23" t="n">
         <v>4</v>
@@ -1798,13 +1718,13 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C24" t="n">
         <v>0.644132090774326</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -1815,9 +1735,7 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" t="s">
-        <v>23</v>
-      </c>
+      <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
@@ -1829,13 +1747,13 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" t="n">
         <v>1.83488275222851</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -1846,9 +1764,7 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25" t="s">
-        <v>23</v>
-      </c>
+      <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
@@ -1860,13 +1776,13 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C26" t="n">
         <v>3.38292950249716</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -1877,9 +1793,7 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26" t="s">
-        <v>23</v>
-      </c>
+      <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
@@ -1891,13 +1805,13 @@
         <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" t="n">
         <v>5.28539133583158</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -1908,9 +1822,7 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="N27" t="s">
-        <v>23</v>
-      </c>
+      <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
@@ -1922,13 +1834,13 @@
         <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
         <v>3.70381008045511</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -1939,9 +1851,7 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28" t="s">
-        <v>23</v>
-      </c>
+      <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
@@ -1953,13 +1863,13 @@
         <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C29" t="n">
         <v>0.740641606295513</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1970,9 +1880,7 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" t="s">
-        <v>23</v>
-      </c>
+      <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
@@ -1984,13 +1892,13 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C30" t="n">
         <v>1.133020789803</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -2001,9 +1909,7 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="N30" t="s">
-        <v>23</v>
-      </c>
+      <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
@@ -2015,13 +1921,13 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C31" t="n">
         <v>1.36791333053786</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -2032,9 +1938,7 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31" t="s">
-        <v>23</v>
-      </c>
+      <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
@@ -2046,13 +1950,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n">
         <v>0.128865130094505</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -2063,9 +1967,7 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="N32" t="s">
-        <v>23</v>
-      </c>
+      <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
@@ -2077,13 +1979,13 @@
         <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C33" t="n">
         <v>0.314841206310894</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -2094,9 +1996,7 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33" t="s">
-        <v>23</v>
-      </c>
+      <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
@@ -2108,13 +2008,13 @@
         <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C34" t="n">
         <v>1.26993086962909</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -2125,9 +2025,7 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" t="s">
-        <v>23</v>
-      </c>
+      <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
@@ -2139,13 +2037,13 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" t="n">
         <v>2.16874239732936</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -2156,9 +2054,7 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35" t="s">
-        <v>23</v>
-      </c>
+      <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
@@ -2170,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C36" t="n">
         <v>0.66897873532874</v>
@@ -2203,19 +2099,15 @@
         <v>0.007</v>
       </c>
       <c r="M36" t="s">
-        <v>37</v>
-      </c>
-      <c r="N36" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N36"/>
       <c r="O36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P36"/>
       <c r="Q36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R36" t="n">
         <v>1</v>
@@ -2229,7 +2121,7 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C37" t="n">
         <v>0.107070275700986</v>
@@ -2262,15 +2154,11 @@
         <v>0.1</v>
       </c>
       <c r="M37" t="s">
-        <v>39</v>
-      </c>
-      <c r="N37" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N37"/>
       <c r="O37"/>
-      <c r="P37" t="s">
-        <v>24</v>
-      </c>
+      <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="n">
         <v>3</v>
@@ -2284,13 +2172,13 @@
         <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C38" t="n">
         <v>1.60364304392266</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -2301,9 +2189,7 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" t="s">
-        <v>23</v>
-      </c>
+      <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
@@ -2315,13 +2201,13 @@
         <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" t="n">
         <v>1.39359954858573</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -2332,9 +2218,7 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39" t="s">
-        <v>23</v>
-      </c>
+      <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
@@ -2346,7 +2230,7 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C40" t="n">
         <v>1.78696011834372</v>
@@ -2381,13 +2265,9 @@
       <c r="M40" t="s">
         <v>22</v>
       </c>
-      <c r="N40" t="s">
-        <v>23</v>
-      </c>
+      <c r="N40"/>
       <c r="O40"/>
-      <c r="P40" t="s">
-        <v>24</v>
-      </c>
+      <c r="P40"/>
       <c r="Q40"/>
       <c r="R40" t="n">
         <v>5</v>
@@ -2401,7 +2281,7 @@
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C41" t="n">
         <v>1.18976620233578</v>
@@ -2434,15 +2314,11 @@
         <v>0.162</v>
       </c>
       <c r="M41" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N41"/>
       <c r="O41"/>
-      <c r="P41" t="s">
-        <v>24</v>
-      </c>
+      <c r="P41"/>
       <c r="Q41"/>
       <c r="R41" t="n">
         <v>4</v>
@@ -2456,7 +2332,7 @@
         <v>268</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C42" t="n">
         <v>0.571027210618175</v>
@@ -2489,15 +2365,11 @@
         <v>0.092</v>
       </c>
       <c r="M42" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N42"/>
       <c r="O42"/>
-      <c r="P42" t="s">
-        <v>24</v>
-      </c>
+      <c r="P42"/>
       <c r="Q42"/>
       <c r="R42" t="n">
         <v>2</v>
@@ -2511,13 +2383,13 @@
         <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C43" t="n">
         <v>2.51633618315946</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
@@ -2528,9 +2400,7 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43" t="s">
-        <v>23</v>
-      </c>
+      <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
@@ -2542,13 +2412,13 @@
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C44" t="n">
         <v>1.52743561726356</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -2559,9 +2429,7 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-      <c r="N44" t="s">
-        <v>23</v>
-      </c>
+      <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
@@ -2573,7 +2441,7 @@
         <v>179</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C45" t="n">
         <v>4.35957785437513</v>
@@ -2606,15 +2474,11 @@
         <v>0.148</v>
       </c>
       <c r="M45" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" t="s">
         <v>28</v>
       </c>
+      <c r="N45"/>
       <c r="O45"/>
-      <c r="P45" t="s">
-        <v>40</v>
-      </c>
+      <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="n">
         <v>4</v>
@@ -2628,7 +2492,7 @@
         <v>181</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C46" t="n">
         <v>6.41202765969905</v>
@@ -2661,15 +2525,11 @@
         <v>0.014</v>
       </c>
       <c r="M46" t="s">
-        <v>37</v>
-      </c>
-      <c r="N46" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N46"/>
       <c r="O46"/>
-      <c r="P46" t="s">
-        <v>24</v>
-      </c>
+      <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="n">
         <v>1</v>
@@ -2683,13 +2543,13 @@
         <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C47" t="n">
         <v>0.646752727732028</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -2700,9 +2560,7 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="N47" t="s">
-        <v>23</v>
-      </c>
+      <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
@@ -2714,7 +2572,7 @@
         <v>229</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n">
         <v>0.49361056279501</v>
@@ -2738,7 +2596,7 @@
         <v>6.85714285714286</v>
       </c>
       <c r="J48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K48" t="n">
         <v>4</v>
@@ -2747,19 +2605,15 @@
         <v>0.067</v>
       </c>
       <c r="M48" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48" t="s">
         <v>26</v>
       </c>
-      <c r="O48" t="s">
-        <v>29</v>
-      </c>
-      <c r="P48" t="s">
-        <v>24</v>
-      </c>
+      <c r="P48"/>
       <c r="Q48" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R48" t="n">
         <v>2</v>
@@ -2773,7 +2627,7 @@
         <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" t="n">
         <v>0.49361056279501</v>
@@ -2797,7 +2651,7 @@
         <v>6.85714285714286</v>
       </c>
       <c r="J49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K49" t="n">
         <v>4</v>
@@ -2806,19 +2660,15 @@
         <v>0.067</v>
       </c>
       <c r="M49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N49" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49" t="s">
         <v>26</v>
       </c>
-      <c r="O49" t="s">
-        <v>29</v>
-      </c>
-      <c r="P49" t="s">
-        <v>24</v>
-      </c>
+      <c r="P49"/>
       <c r="Q49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R49" t="n">
         <v>2</v>
@@ -2832,13 +2682,13 @@
         <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C50" t="n">
         <v>0.349665649657895</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
@@ -2849,9 +2699,7 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" t="s">
-        <v>23</v>
-      </c>
+      <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
@@ -2863,7 +2711,7 @@
         <v>232</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C51" t="n">
         <v>0.693032152455266</v>
@@ -2887,7 +2735,7 @@
         <v>5.5</v>
       </c>
       <c r="J51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K51" t="n">
         <v>4.1</v>
@@ -2896,19 +2744,15 @@
         <v>0.197</v>
       </c>
       <c r="M51" t="s">
-        <v>31</v>
-      </c>
-      <c r="N51" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N51"/>
       <c r="O51" t="s">
-        <v>29</v>
-      </c>
-      <c r="P51" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P51"/>
       <c r="Q51" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R51" t="n">
         <v>4</v>
@@ -2922,7 +2766,7 @@
         <v>233</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C52" t="n">
         <v>0.693032152455266</v>
@@ -2946,7 +2790,7 @@
         <v>5.5</v>
       </c>
       <c r="J52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K52" t="n">
         <v>4.1</v>
@@ -2955,19 +2799,15 @@
         <v>0.197</v>
       </c>
       <c r="M52" t="s">
-        <v>31</v>
-      </c>
-      <c r="N52" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N52"/>
       <c r="O52" t="s">
-        <v>29</v>
-      </c>
-      <c r="P52" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P52"/>
       <c r="Q52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R52" t="n">
         <v>4</v>
@@ -2981,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C53" t="n">
         <v>0.112713344515473</v>
@@ -3005,7 +2845,7 @@
         <v>5.57142857142857</v>
       </c>
       <c r="J53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K53" t="n">
         <v>4.1</v>
@@ -3014,19 +2854,15 @@
         <v>0.054</v>
       </c>
       <c r="M53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N53"/>
       <c r="O53" t="s">
-        <v>29</v>
-      </c>
-      <c r="P53" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P53"/>
       <c r="Q53" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R53" t="n">
         <v>2</v>
@@ -3040,13 +2876,13 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C54" t="n">
         <v>0.417729568674386</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
@@ -3057,9 +2893,7 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
-      <c r="N54" t="s">
-        <v>23</v>
-      </c>
+      <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
@@ -3071,13 +2905,13 @@
         <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C55" t="n">
         <v>1.15049632482307</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
@@ -3088,9 +2922,7 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
-      <c r="N55" t="s">
-        <v>23</v>
-      </c>
+      <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
@@ -3102,13 +2934,13 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C56" t="n">
         <v>1.05372178863819</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
@@ -3119,9 +2951,7 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
-      <c r="N56" t="s">
-        <v>23</v>
-      </c>
+      <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
@@ -3133,13 +2963,13 @@
         <v>162</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C57" t="n">
         <v>0.28428473838109</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
@@ -3150,9 +2980,7 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
-      <c r="N57" t="s">
-        <v>23</v>
-      </c>
+      <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
@@ -3164,13 +2992,13 @@
         <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C58" t="n">
         <v>2.51633618315946</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
@@ -3181,9 +3009,7 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
-      <c r="N58" t="s">
-        <v>23</v>
-      </c>
+      <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
@@ -3195,13 +3021,13 @@
         <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C59" t="n">
         <v>1.83488275222851</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
@@ -3212,9 +3038,7 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
-      <c r="N59" t="s">
-        <v>23</v>
-      </c>
+      <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
@@ -3226,13 +3050,13 @@
         <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C60" t="n">
         <v>3.70381008045511</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
@@ -3243,9 +3067,7 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
-      <c r="N60" t="s">
-        <v>23</v>
-      </c>
+      <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
@@ -3257,7 +3079,7 @@
         <v>199</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C61" t="n">
         <v>0.458879079908757</v>
@@ -3271,24 +3093,20 @@
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K61"/>
       <c r="L61" t="n">
         <v>0.009</v>
       </c>
       <c r="M61" t="s">
-        <v>37</v>
-      </c>
-      <c r="N61" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N61"/>
       <c r="O61" t="s">
-        <v>29</v>
-      </c>
-      <c r="P61" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P61"/>
       <c r="Q61"/>
       <c r="R61" t="n">
         <v>1</v>
@@ -3302,7 +3120,7 @@
         <v>230</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C62" t="n">
         <v>0.49361056279501</v>
@@ -3326,7 +3144,7 @@
         <v>6.85714285714286</v>
       </c>
       <c r="J62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K62" t="n">
         <v>4</v>
@@ -3335,19 +3153,15 @@
         <v>0.067</v>
       </c>
       <c r="M62" t="s">
-        <v>27</v>
-      </c>
-      <c r="N62" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62" t="s">
         <v>26</v>
       </c>
-      <c r="O62" t="s">
-        <v>29</v>
-      </c>
-      <c r="P62" t="s">
-        <v>24</v>
-      </c>
+      <c r="P62"/>
       <c r="Q62" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R62" t="n">
         <v>2</v>
@@ -3361,7 +3175,7 @@
         <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C63" t="n">
         <v>0.693032152455266</v>
@@ -3385,7 +3199,7 @@
         <v>5.5</v>
       </c>
       <c r="J63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K63" t="n">
         <v>4.1</v>
@@ -3394,19 +3208,15 @@
         <v>0.197</v>
       </c>
       <c r="M63" t="s">
-        <v>31</v>
-      </c>
-      <c r="N63" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N63"/>
       <c r="O63" t="s">
-        <v>29</v>
-      </c>
-      <c r="P63" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P63"/>
       <c r="Q63" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R63" t="n">
         <v>4</v>
@@ -3420,7 +3230,7 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C64" t="n">
         <v>0.755803154300073</v>
@@ -3453,15 +3263,11 @@
         <v>0.023</v>
       </c>
       <c r="M64" t="s">
-        <v>37</v>
-      </c>
-      <c r="N64" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N64"/>
       <c r="O64"/>
-      <c r="P64" t="s">
-        <v>24</v>
-      </c>
+      <c r="P64"/>
       <c r="Q64"/>
       <c r="R64" t="n">
         <v>1</v>
@@ -3475,13 +3281,13 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C65" t="n">
         <v>0.902412461610448</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
@@ -3492,9 +3298,7 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
-      <c r="N65" t="s">
-        <v>23</v>
-      </c>
+      <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
@@ -3506,13 +3310,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C66" t="n">
         <v>0.519833848172691</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
@@ -3523,9 +3327,7 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
-      <c r="N66" t="s">
-        <v>23</v>
-      </c>
+      <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
@@ -3537,13 +3339,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C67" t="n">
         <v>2.93639026467332</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E67"/>
       <c r="F67"/>
@@ -3554,9 +3356,7 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
-      <c r="N67" t="s">
-        <v>23</v>
-      </c>
+      <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
@@ -3568,7 +3368,7 @@
         <v>235</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
         <v>0.693032152455266</v>
@@ -3592,7 +3392,7 @@
         <v>5.5</v>
       </c>
       <c r="J68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K68" t="n">
         <v>4.1</v>
@@ -3601,19 +3401,15 @@
         <v>0.197</v>
       </c>
       <c r="M68" t="s">
-        <v>31</v>
-      </c>
-      <c r="N68" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N68"/>
       <c r="O68" t="s">
-        <v>29</v>
-      </c>
-      <c r="P68" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P68"/>
       <c r="Q68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R68" t="n">
         <v>4</v>
@@ -3627,7 +3423,7 @@
         <v>236</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
         <v>0.693032152455266</v>
@@ -3651,7 +3447,7 @@
         <v>5.5</v>
       </c>
       <c r="J69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K69" t="n">
         <v>4.1</v>
@@ -3660,19 +3456,15 @@
         <v>0.197</v>
       </c>
       <c r="M69" t="s">
-        <v>31</v>
-      </c>
-      <c r="N69" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N69"/>
       <c r="O69" t="s">
-        <v>29</v>
-      </c>
-      <c r="P69" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P69"/>
       <c r="Q69" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R69" t="n">
         <v>4</v>
@@ -3686,7 +3478,7 @@
         <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C70" t="n">
         <v>0.693032152455266</v>
@@ -3710,7 +3502,7 @@
         <v>5.5</v>
       </c>
       <c r="J70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K70" t="n">
         <v>4.1</v>
@@ -3719,17 +3511,13 @@
         <v>0.197</v>
       </c>
       <c r="M70" t="s">
-        <v>31</v>
-      </c>
-      <c r="N70" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N70"/>
       <c r="O70" t="s">
-        <v>29</v>
-      </c>
-      <c r="P70" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P70"/>
       <c r="Q70"/>
       <c r="R70" t="n">
         <v>4</v>
@@ -3743,7 +3531,7 @@
         <v>239</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C71" t="n">
         <v>0.693032152455266</v>
@@ -3767,7 +3555,7 @@
         <v>5.5</v>
       </c>
       <c r="J71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K71" t="n">
         <v>4.1</v>
@@ -3776,19 +3564,15 @@
         <v>0.197</v>
       </c>
       <c r="M71" t="s">
-        <v>31</v>
-      </c>
-      <c r="N71" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N71"/>
       <c r="O71" t="s">
-        <v>29</v>
-      </c>
-      <c r="P71" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P71"/>
       <c r="Q71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R71" t="n">
         <v>4</v>
@@ -3802,7 +3586,7 @@
         <v>240</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C72" t="n">
         <v>0.693032152455266</v>
@@ -3826,7 +3610,7 @@
         <v>5.5</v>
       </c>
       <c r="J72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K72" t="n">
         <v>4.1</v>
@@ -3835,19 +3619,15 @@
         <v>0.197</v>
       </c>
       <c r="M72" t="s">
-        <v>31</v>
-      </c>
-      <c r="N72" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N72"/>
       <c r="O72" t="s">
-        <v>29</v>
-      </c>
-      <c r="P72" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P72"/>
       <c r="Q72" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R72" t="n">
         <v>4</v>
@@ -3861,7 +3641,7 @@
         <v>241</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C73" t="n">
         <v>0.693032152455266</v>
@@ -3885,7 +3665,7 @@
         <v>5.5</v>
       </c>
       <c r="J73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K73" t="n">
         <v>4.1</v>
@@ -3894,19 +3674,15 @@
         <v>0.197</v>
       </c>
       <c r="M73" t="s">
-        <v>31</v>
-      </c>
-      <c r="N73" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N73"/>
       <c r="O73" t="s">
-        <v>29</v>
-      </c>
-      <c r="P73" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P73"/>
       <c r="Q73" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R73" t="n">
         <v>4</v>
@@ -3920,7 +3696,7 @@
         <v>243</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C74" t="n">
         <v>0.412433262120203</v>
@@ -3944,7 +3720,7 @@
         <v>5.92857142857143</v>
       </c>
       <c r="J74" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K74" t="n">
         <v>4</v>
@@ -3953,19 +3729,15 @@
         <v>0.24</v>
       </c>
       <c r="M74" t="s">
-        <v>31</v>
-      </c>
-      <c r="N74" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N74"/>
       <c r="O74" t="s">
-        <v>29</v>
-      </c>
-      <c r="P74" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P74"/>
       <c r="Q74" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R74" t="n">
         <v>4</v>
@@ -3979,7 +3751,7 @@
         <v>250</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" t="n">
         <v>0.829596494529605</v>
@@ -4003,7 +3775,7 @@
         <v>5.96</v>
       </c>
       <c r="J75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K75" t="n">
         <v>3.9</v>
@@ -4012,17 +3784,13 @@
         <v>0.185</v>
       </c>
       <c r="M75" t="s">
-        <v>31</v>
-      </c>
-      <c r="N75" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N75"/>
       <c r="O75"/>
-      <c r="P75" t="s">
-        <v>24</v>
-      </c>
+      <c r="P75"/>
       <c r="Q75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R75" t="n">
         <v>4</v>
@@ -4036,7 +3804,7 @@
         <v>251</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C76" t="n">
         <v>0.829596494529605</v>
@@ -4060,7 +3828,7 @@
         <v>5.96</v>
       </c>
       <c r="J76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K76" t="n">
         <v>3.9</v>
@@ -4069,17 +3837,13 @@
         <v>0.185</v>
       </c>
       <c r="M76" t="s">
-        <v>31</v>
-      </c>
-      <c r="N76" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N76"/>
       <c r="O76"/>
-      <c r="P76" t="s">
-        <v>24</v>
-      </c>
+      <c r="P76"/>
       <c r="Q76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R76" t="n">
         <v>4</v>
@@ -4093,7 +3857,7 @@
         <v>252</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C77" t="n">
         <v>0.829596494529605</v>
@@ -4117,7 +3881,7 @@
         <v>5.96</v>
       </c>
       <c r="J77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K77" t="n">
         <v>3.9</v>
@@ -4126,17 +3890,13 @@
         <v>0.185</v>
       </c>
       <c r="M77" t="s">
-        <v>31</v>
-      </c>
-      <c r="N77" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N77"/>
       <c r="O77"/>
-      <c r="P77" t="s">
-        <v>24</v>
-      </c>
+      <c r="P77"/>
       <c r="Q77" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R77" t="n">
         <v>4</v>
@@ -4150,7 +3910,7 @@
         <v>254</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C78" t="n">
         <v>0.571027210618175</v>
@@ -4183,15 +3943,11 @@
         <v>0.092</v>
       </c>
       <c r="M78" t="s">
-        <v>27</v>
-      </c>
-      <c r="N78" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N78"/>
       <c r="O78"/>
-      <c r="P78" t="s">
-        <v>24</v>
-      </c>
+      <c r="P78"/>
       <c r="Q78"/>
       <c r="R78" t="n">
         <v>2</v>
@@ -4205,7 +3961,7 @@
         <v>255</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C79" t="n">
         <v>0.829596494529605</v>
@@ -4229,7 +3985,7 @@
         <v>5.96</v>
       </c>
       <c r="J79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K79" t="n">
         <v>3.9</v>
@@ -4238,17 +3994,13 @@
         <v>0.185</v>
       </c>
       <c r="M79" t="s">
-        <v>31</v>
-      </c>
-      <c r="N79" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N79"/>
       <c r="O79"/>
-      <c r="P79" t="s">
-        <v>24</v>
-      </c>
+      <c r="P79"/>
       <c r="Q79" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R79" t="n">
         <v>4</v>
@@ -4262,7 +4014,7 @@
         <v>257</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C80" t="n">
         <v>0.414327768743119</v>
@@ -4295,15 +4047,11 @@
         <v>0.072</v>
       </c>
       <c r="M80" t="s">
-        <v>27</v>
-      </c>
-      <c r="N80" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N80"/>
       <c r="O80"/>
-      <c r="P80" t="s">
-        <v>24</v>
-      </c>
+      <c r="P80"/>
       <c r="Q80"/>
       <c r="R80" t="n">
         <v>2</v>
@@ -4317,7 +4065,7 @@
         <v>242</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C81" t="n">
         <v>0.693032152455266</v>
@@ -4341,7 +4089,7 @@
         <v>5.5</v>
       </c>
       <c r="J81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K81" t="n">
         <v>4.1</v>
@@ -4350,19 +4098,15 @@
         <v>0.197</v>
       </c>
       <c r="M81" t="s">
-        <v>31</v>
-      </c>
-      <c r="N81" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N81"/>
       <c r="O81" t="s">
-        <v>29</v>
-      </c>
-      <c r="P81" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P81"/>
       <c r="Q81" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R81" t="n">
         <v>4</v>
@@ -4376,7 +4120,7 @@
         <v>244</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C82" t="n">
         <v>0.693032152455266</v>
@@ -4400,7 +4144,7 @@
         <v>5.5</v>
       </c>
       <c r="J82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K82" t="n">
         <v>4.1</v>
@@ -4409,19 +4153,15 @@
         <v>0.197</v>
       </c>
       <c r="M82" t="s">
-        <v>31</v>
-      </c>
-      <c r="N82" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N82"/>
       <c r="O82" t="s">
-        <v>29</v>
-      </c>
-      <c r="P82" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P82"/>
       <c r="Q82" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R82" t="n">
         <v>4</v>
@@ -4435,7 +4175,7 @@
         <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C83" t="n">
         <v>0.829596494529605</v>
@@ -4459,7 +4199,7 @@
         <v>5.96</v>
       </c>
       <c r="J83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K83" t="n">
         <v>3.9</v>
@@ -4468,17 +4208,13 @@
         <v>0.185</v>
       </c>
       <c r="M83" t="s">
-        <v>31</v>
-      </c>
-      <c r="N83" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N83"/>
       <c r="O83"/>
-      <c r="P83" t="s">
-        <v>24</v>
-      </c>
+      <c r="P83"/>
       <c r="Q83" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R83" t="n">
         <v>4</v>
@@ -4492,7 +4228,7 @@
         <v>258</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C84" t="n">
         <v>0.414327768743119</v>
@@ -4525,15 +4261,11 @@
         <v>0.072</v>
       </c>
       <c r="M84" t="s">
-        <v>27</v>
-      </c>
-      <c r="N84" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N84"/>
       <c r="O84"/>
-      <c r="P84" t="s">
-        <v>24</v>
-      </c>
+      <c r="P84"/>
       <c r="Q84"/>
       <c r="R84" t="n">
         <v>2</v>
@@ -4547,7 +4279,7 @@
         <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C85" t="n">
         <v>0.412433262120203</v>
@@ -4571,7 +4303,7 @@
         <v>5.92857142857143</v>
       </c>
       <c r="J85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K85" t="n">
         <v>4</v>
@@ -4580,19 +4312,15 @@
         <v>0.24</v>
       </c>
       <c r="M85" t="s">
-        <v>31</v>
-      </c>
-      <c r="N85" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N85"/>
       <c r="O85" t="s">
-        <v>29</v>
-      </c>
-      <c r="P85" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P85"/>
       <c r="Q85" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R85" t="n">
         <v>4</v>
@@ -4606,7 +4334,7 @@
         <v>246</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C86" t="n">
         <v>0.412433262120203</v>
@@ -4630,7 +4358,7 @@
         <v>5.92857142857143</v>
       </c>
       <c r="J86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K86" t="n">
         <v>4</v>
@@ -4639,19 +4367,15 @@
         <v>0.24</v>
       </c>
       <c r="M86" t="s">
-        <v>31</v>
-      </c>
-      <c r="N86" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N86"/>
       <c r="O86" t="s">
-        <v>29</v>
-      </c>
-      <c r="P86" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P86"/>
       <c r="Q86" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R86" t="n">
         <v>4</v>
@@ -4665,7 +4389,7 @@
         <v>247</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C87" t="n">
         <v>0.412433262120203</v>
@@ -4689,7 +4413,7 @@
         <v>5.92857142857143</v>
       </c>
       <c r="J87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K87" t="n">
         <v>4</v>
@@ -4698,19 +4422,15 @@
         <v>0.24</v>
       </c>
       <c r="M87" t="s">
-        <v>31</v>
-      </c>
-      <c r="N87" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N87"/>
       <c r="O87" t="s">
-        <v>29</v>
-      </c>
-      <c r="P87" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P87"/>
       <c r="Q87" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R87" t="n">
         <v>4</v>
@@ -4724,7 +4444,7 @@
         <v>261</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C88" t="n">
         <v>0.414145635313275</v>
@@ -4757,15 +4477,11 @@
         <v>0.139</v>
       </c>
       <c r="M88" t="s">
-        <v>31</v>
-      </c>
-      <c r="N88" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N88"/>
       <c r="O88"/>
-      <c r="P88" t="s">
-        <v>24</v>
-      </c>
+      <c r="P88"/>
       <c r="Q88"/>
       <c r="R88" t="n">
         <v>4</v>
@@ -4779,7 +4495,7 @@
         <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C89" t="n">
         <v>0.414145635313275</v>
@@ -4812,15 +4528,11 @@
         <v>0.139</v>
       </c>
       <c r="M89" t="s">
-        <v>31</v>
-      </c>
-      <c r="N89" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N89"/>
       <c r="O89"/>
-      <c r="P89" t="s">
-        <v>24</v>
-      </c>
+      <c r="P89"/>
       <c r="Q89"/>
       <c r="R89" t="n">
         <v>4</v>
@@ -4834,7 +4546,7 @@
         <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C90" t="n">
         <v>0.414145635313275</v>
@@ -4867,15 +4579,11 @@
         <v>0.139</v>
       </c>
       <c r="M90" t="s">
-        <v>31</v>
-      </c>
-      <c r="N90" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N90"/>
       <c r="O90"/>
-      <c r="P90" t="s">
-        <v>24</v>
-      </c>
+      <c r="P90"/>
       <c r="Q90"/>
       <c r="R90" t="n">
         <v>4</v>
@@ -4889,7 +4597,7 @@
         <v>278</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C91" t="n">
         <v>0.92774710061408</v>
@@ -4924,13 +4632,9 @@
       <c r="M91" t="s">
         <v>22</v>
       </c>
-      <c r="N91" t="s">
-        <v>23</v>
-      </c>
+      <c r="N91"/>
       <c r="O91"/>
-      <c r="P91" t="s">
-        <v>24</v>
-      </c>
+      <c r="P91"/>
       <c r="Q91"/>
       <c r="R91" t="n">
         <v>5</v>
@@ -4944,13 +4648,13 @@
         <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C92" t="n">
         <v>0.253256206371231</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
@@ -4961,9 +4665,7 @@
       <c r="K92"/>
       <c r="L92"/>
       <c r="M92"/>
-      <c r="N92" t="s">
-        <v>23</v>
-      </c>
+      <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
@@ -4975,7 +4677,7 @@
         <v>248</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C93" t="n">
         <v>0.829596494529605</v>
@@ -4999,7 +4701,7 @@
         <v>5.96</v>
       </c>
       <c r="J93" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K93" t="n">
         <v>3.9</v>
@@ -5008,17 +4710,13 @@
         <v>0.185</v>
       </c>
       <c r="M93" t="s">
-        <v>31</v>
-      </c>
-      <c r="N93" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N93"/>
       <c r="O93"/>
-      <c r="P93" t="s">
-        <v>24</v>
-      </c>
+      <c r="P93"/>
       <c r="Q93" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R93" t="n">
         <v>4</v>
@@ -5032,7 +4730,7 @@
         <v>249</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C94" t="n">
         <v>0.829596494529605</v>
@@ -5056,7 +4754,7 @@
         <v>5.96</v>
       </c>
       <c r="J94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K94" t="n">
         <v>3.9</v>
@@ -5065,17 +4763,13 @@
         <v>0.185</v>
       </c>
       <c r="M94" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N94"/>
       <c r="O94"/>
-      <c r="P94" t="s">
-        <v>24</v>
-      </c>
+      <c r="P94"/>
       <c r="Q94" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R94" t="n">
         <v>4</v>
@@ -5089,7 +4783,7 @@
         <v>280</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C95" t="n">
         <v>0.92774710061408</v>
@@ -5124,13 +4818,9 @@
       <c r="M95" t="s">
         <v>22</v>
       </c>
-      <c r="N95" t="s">
-        <v>23</v>
-      </c>
+      <c r="N95"/>
       <c r="O95"/>
-      <c r="P95" t="s">
-        <v>24</v>
-      </c>
+      <c r="P95"/>
       <c r="Q95"/>
       <c r="R95" t="n">
         <v>5</v>
@@ -5144,7 +4834,7 @@
         <v>281</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C96" t="n">
         <v>0.92774710061408</v>
@@ -5179,13 +4869,9 @@
       <c r="M96" t="s">
         <v>22</v>
       </c>
-      <c r="N96" t="s">
-        <v>23</v>
-      </c>
+      <c r="N96"/>
       <c r="O96"/>
-      <c r="P96" t="s">
-        <v>24</v>
-      </c>
+      <c r="P96"/>
       <c r="Q96"/>
       <c r="R96" t="n">
         <v>5</v>
@@ -5199,7 +4885,7 @@
         <v>253</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C97" t="n">
         <v>0.571027210618175</v>
@@ -5232,15 +4918,11 @@
         <v>0.092</v>
       </c>
       <c r="M97" t="s">
-        <v>27</v>
-      </c>
-      <c r="N97" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N97"/>
       <c r="O97"/>
-      <c r="P97" t="s">
-        <v>24</v>
-      </c>
+      <c r="P97"/>
       <c r="Q97"/>
       <c r="R97" t="n">
         <v>2</v>
@@ -5254,7 +4936,7 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C98" t="n">
         <v>0.460727118526377</v>
@@ -5289,13 +4971,9 @@
       <c r="M98" t="s">
         <v>22</v>
       </c>
-      <c r="N98" t="s">
-        <v>23</v>
-      </c>
+      <c r="N98"/>
       <c r="O98"/>
-      <c r="P98" t="s">
-        <v>24</v>
-      </c>
+      <c r="P98"/>
       <c r="Q98"/>
       <c r="R98" t="n">
         <v>5</v>
@@ -5309,13 +4987,13 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C99" t="n">
         <v>0.675958325071958</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E99"/>
       <c r="F99"/>
@@ -5326,9 +5004,7 @@
       <c r="K99"/>
       <c r="L99"/>
       <c r="M99"/>
-      <c r="N99" t="s">
-        <v>23</v>
-      </c>
+      <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
       <c r="Q99"/>
@@ -5340,13 +5016,13 @@
         <v>63</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C100" t="n">
         <v>2.21373798609378</v>
       </c>
       <c r="D100" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
@@ -5357,9 +5033,7 @@
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
-      <c r="N100" t="s">
-        <v>23</v>
-      </c>
+      <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
       <c r="Q100"/>
@@ -5371,13 +5045,13 @@
         <v>64</v>
       </c>
       <c r="B101" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C101" t="n">
         <v>2.01610167344917</v>
       </c>
       <c r="D101" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
@@ -5388,9 +5062,7 @@
       <c r="K101"/>
       <c r="L101"/>
       <c r="M101"/>
-      <c r="N101" t="s">
-        <v>23</v>
-      </c>
+      <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101"/>
@@ -5402,7 +5074,7 @@
         <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C102" t="n">
         <v>0.412433262120203</v>
@@ -5426,7 +5098,7 @@
         <v>5.92857142857143</v>
       </c>
       <c r="J102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K102" t="n">
         <v>4</v>
@@ -5435,19 +5107,15 @@
         <v>0.24</v>
       </c>
       <c r="M102" t="s">
-        <v>31</v>
-      </c>
-      <c r="N102" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N102"/>
       <c r="O102" t="s">
-        <v>29</v>
-      </c>
-      <c r="P102" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P102"/>
       <c r="Q102" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R102" t="n">
         <v>4</v>
@@ -5461,7 +5129,7 @@
         <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C103" t="n">
         <v>0.051898073350869</v>
@@ -5485,7 +5153,7 @@
         <v>5.75</v>
       </c>
       <c r="J103" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K103" t="n">
         <v>4</v>
@@ -5494,17 +5162,13 @@
         <v>0.049</v>
       </c>
       <c r="M103" t="s">
-        <v>27</v>
-      </c>
-      <c r="N103" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N103"/>
       <c r="O103" t="s">
-        <v>29</v>
-      </c>
-      <c r="P103" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P103"/>
       <c r="Q103"/>
       <c r="R103" t="n">
         <v>2</v>
@@ -5518,7 +5182,7 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C104" t="n">
         <v>0.826369948743528</v>
@@ -5542,7 +5206,7 @@
         <v>6.45454545454545</v>
       </c>
       <c r="J104" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K104" t="n">
         <v>4</v>
@@ -5553,17 +5217,13 @@
       <c r="M104" t="s">
         <v>22</v>
       </c>
-      <c r="N104" t="s">
+      <c r="N104"/>
+      <c r="O104" t="s">
         <v>26</v>
       </c>
-      <c r="O104" t="s">
-        <v>29</v>
-      </c>
-      <c r="P104" t="s">
-        <v>24</v>
-      </c>
+      <c r="P104"/>
       <c r="Q104" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R104" t="n">
         <v>5</v>
@@ -5577,7 +5237,7 @@
         <v>31</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C105" t="n">
         <v>0.92774710061408</v>
@@ -5612,15 +5272,11 @@
       <c r="M105" t="s">
         <v>22</v>
       </c>
-      <c r="N105" t="s">
-        <v>23</v>
-      </c>
+      <c r="N105"/>
       <c r="O105"/>
-      <c r="P105" t="s">
-        <v>24</v>
-      </c>
+      <c r="P105"/>
       <c r="Q105" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R105" t="n">
         <v>5</v>
@@ -5634,7 +5290,7 @@
         <v>259</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C106" t="n">
         <v>0.414327768743119</v>
@@ -5667,15 +5323,11 @@
         <v>0.072</v>
       </c>
       <c r="M106" t="s">
-        <v>27</v>
-      </c>
-      <c r="N106" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N106"/>
       <c r="O106"/>
-      <c r="P106" t="s">
-        <v>24</v>
-      </c>
+      <c r="P106"/>
       <c r="Q106"/>
       <c r="R106" t="n">
         <v>2</v>
@@ -5689,7 +5341,7 @@
         <v>260</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C107" t="n">
         <v>0.414145635313275</v>
@@ -5722,15 +5374,11 @@
         <v>0.139</v>
       </c>
       <c r="M107" t="s">
-        <v>31</v>
-      </c>
-      <c r="N107" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N107"/>
       <c r="O107"/>
-      <c r="P107" t="s">
-        <v>24</v>
-      </c>
+      <c r="P107"/>
       <c r="Q107"/>
       <c r="R107" t="n">
         <v>4</v>
@@ -5744,7 +5392,7 @@
         <v>38</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C108" t="n">
         <v>0.567375028343847</v>
@@ -5777,15 +5425,11 @@
         <v>0.096</v>
       </c>
       <c r="M108" t="s">
-        <v>39</v>
-      </c>
-      <c r="N108" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N108"/>
       <c r="O108"/>
-      <c r="P108" t="s">
-        <v>24</v>
-      </c>
+      <c r="P108"/>
       <c r="Q108"/>
       <c r="R108" t="n">
         <v>3</v>
@@ -5799,7 +5443,7 @@
         <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C109" t="n">
         <v>0.414145635313275</v>
@@ -5832,15 +5476,11 @@
         <v>0.139</v>
       </c>
       <c r="M109" t="s">
-        <v>31</v>
-      </c>
-      <c r="N109" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N109"/>
       <c r="O109"/>
-      <c r="P109" t="s">
-        <v>24</v>
-      </c>
+      <c r="P109"/>
       <c r="Q109"/>
       <c r="R109" t="n">
         <v>4</v>
@@ -5854,7 +5494,7 @@
         <v>264</v>
       </c>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C110" t="n">
         <v>0.414327768743119</v>
@@ -5887,15 +5527,11 @@
         <v>0.072</v>
       </c>
       <c r="M110" t="s">
-        <v>27</v>
-      </c>
-      <c r="N110" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N110"/>
       <c r="O110"/>
-      <c r="P110" t="s">
-        <v>24</v>
-      </c>
+      <c r="P110"/>
       <c r="Q110"/>
       <c r="R110" t="n">
         <v>2</v>
@@ -5909,7 +5545,7 @@
         <v>33</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C111" t="n">
         <v>2.26855207476179</v>
@@ -5942,15 +5578,11 @@
         <v>0.219</v>
       </c>
       <c r="M111" t="s">
-        <v>31</v>
-      </c>
-      <c r="N111" t="s">
         <v>28</v>
       </c>
+      <c r="N111"/>
       <c r="O111"/>
-      <c r="P111" t="s">
-        <v>40</v>
-      </c>
+      <c r="P111"/>
       <c r="Q111"/>
       <c r="R111" t="n">
         <v>4</v>
@@ -5964,13 +5596,13 @@
         <v>48</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C112" t="n">
         <v>1.39359954858573</v>
       </c>
       <c r="D112" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E112"/>
       <c r="F112"/>
@@ -5981,9 +5613,7 @@
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
-      <c r="N112" t="s">
-        <v>23</v>
-      </c>
+      <c r="N112"/>
       <c r="O112"/>
       <c r="P112"/>
       <c r="Q112"/>
@@ -5995,13 +5625,13 @@
         <v>55</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C113" t="n">
         <v>0.127543165797058</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E113"/>
       <c r="F113"/>
@@ -6012,9 +5642,7 @@
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
-      <c r="N113" t="s">
-        <v>23</v>
-      </c>
+      <c r="N113"/>
       <c r="O113"/>
       <c r="P113"/>
       <c r="Q113"/>
@@ -6026,13 +5654,13 @@
         <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C114" t="n">
         <v>0.265492245631509</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E114"/>
       <c r="F114"/>
@@ -6043,9 +5671,7 @@
       <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
-      <c r="N114" t="s">
-        <v>23</v>
-      </c>
+      <c r="N114"/>
       <c r="O114"/>
       <c r="P114"/>
       <c r="Q114"/>
@@ -6057,13 +5683,13 @@
         <v>57</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C115" t="n">
         <v>0.646752727732028</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E115"/>
       <c r="F115"/>
@@ -6074,9 +5700,7 @@
       <c r="K115"/>
       <c r="L115"/>
       <c r="M115"/>
-      <c r="N115" t="s">
-        <v>23</v>
-      </c>
+      <c r="N115"/>
       <c r="O115"/>
       <c r="P115"/>
       <c r="Q115"/>
@@ -6088,13 +5712,13 @@
         <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C116" t="n">
         <v>0.349665649657895</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
@@ -6105,9 +5729,7 @@
       <c r="K116"/>
       <c r="L116"/>
       <c r="M116"/>
-      <c r="N116" t="s">
-        <v>23</v>
-      </c>
+      <c r="N116"/>
       <c r="O116"/>
       <c r="P116"/>
       <c r="Q116"/>
@@ -6119,7 +5741,7 @@
         <v>266</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C117" t="n">
         <v>0.414145635313275</v>
@@ -6152,15 +5774,11 @@
         <v>0.139</v>
       </c>
       <c r="M117" t="s">
-        <v>31</v>
-      </c>
-      <c r="N117" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N117"/>
       <c r="O117"/>
-      <c r="P117" t="s">
-        <v>24</v>
-      </c>
+      <c r="P117"/>
       <c r="Q117"/>
       <c r="R117" t="n">
         <v>4</v>
@@ -6174,7 +5792,7 @@
         <v>267</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C118" t="n">
         <v>0.414145635313275</v>
@@ -6207,15 +5825,11 @@
         <v>0.139</v>
       </c>
       <c r="M118" t="s">
-        <v>31</v>
-      </c>
-      <c r="N118" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N118"/>
       <c r="O118"/>
-      <c r="P118" t="s">
-        <v>24</v>
-      </c>
+      <c r="P118"/>
       <c r="Q118"/>
       <c r="R118" t="n">
         <v>4</v>
@@ -6229,13 +5843,13 @@
         <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C119" t="n">
         <v>1.15049632482307</v>
       </c>
       <c r="D119" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E119"/>
       <c r="F119"/>
@@ -6246,9 +5860,7 @@
       <c r="K119"/>
       <c r="L119"/>
       <c r="M119"/>
-      <c r="N119" t="s">
-        <v>23</v>
-      </c>
+      <c r="N119"/>
       <c r="O119"/>
       <c r="P119"/>
       <c r="Q119"/>
@@ -6260,13 +5872,13 @@
         <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C120" t="n">
         <v>0.30530469500922</v>
       </c>
       <c r="D120" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E120"/>
       <c r="F120"/>
@@ -6277,9 +5889,7 @@
       <c r="K120"/>
       <c r="L120"/>
       <c r="M120"/>
-      <c r="N120" t="s">
-        <v>23</v>
-      </c>
+      <c r="N120"/>
       <c r="O120"/>
       <c r="P120"/>
       <c r="Q120"/>
@@ -6291,13 +5901,13 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C121" t="n">
         <v>0.28428473838109</v>
       </c>
       <c r="D121" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E121"/>
       <c r="F121"/>
@@ -6308,9 +5918,7 @@
       <c r="K121"/>
       <c r="L121"/>
       <c r="M121"/>
-      <c r="N121" t="s">
-        <v>23</v>
-      </c>
+      <c r="N121"/>
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121"/>
@@ -6322,13 +5930,13 @@
         <v>75</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C122" t="n">
         <v>0.314454724382357</v>
       </c>
       <c r="D122" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E122"/>
       <c r="F122"/>
@@ -6339,9 +5947,7 @@
       <c r="K122"/>
       <c r="L122"/>
       <c r="M122"/>
-      <c r="N122" t="s">
-        <v>23</v>
-      </c>
+      <c r="N122"/>
       <c r="O122"/>
       <c r="P122"/>
       <c r="Q122"/>
@@ -6353,13 +5959,13 @@
         <v>78</v>
       </c>
       <c r="B123" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C123" t="n">
         <v>0.566844510287108</v>
       </c>
       <c r="D123" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E123"/>
       <c r="F123"/>
@@ -6370,9 +5976,7 @@
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123"/>
-      <c r="N123" t="s">
-        <v>23</v>
-      </c>
+      <c r="N123"/>
       <c r="O123"/>
       <c r="P123"/>
       <c r="Q123"/>
@@ -6384,13 +5988,13 @@
         <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C124" t="n">
         <v>1.99931626505519</v>
       </c>
       <c r="D124" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E124"/>
       <c r="F124"/>
@@ -6401,9 +6005,7 @@
       <c r="K124"/>
       <c r="L124"/>
       <c r="M124"/>
-      <c r="N124" t="s">
-        <v>23</v>
-      </c>
+      <c r="N124"/>
       <c r="O124"/>
       <c r="P124"/>
       <c r="Q124"/>
@@ -6415,13 +6017,13 @@
         <v>85</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C125" t="n">
         <v>1.97234904809386</v>
       </c>
       <c r="D125" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E125"/>
       <c r="F125"/>
@@ -6432,9 +6034,7 @@
       <c r="K125"/>
       <c r="L125"/>
       <c r="M125"/>
-      <c r="N125" t="s">
-        <v>23</v>
-      </c>
+      <c r="N125"/>
       <c r="O125"/>
       <c r="P125"/>
       <c r="Q125"/>
@@ -6446,13 +6046,13 @@
         <v>88</v>
       </c>
       <c r="B126" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C126" t="n">
         <v>1.69340529874312</v>
       </c>
       <c r="D126" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E126"/>
       <c r="F126"/>
@@ -6463,9 +6063,7 @@
       <c r="K126"/>
       <c r="L126"/>
       <c r="M126"/>
-      <c r="N126" t="s">
-        <v>23</v>
-      </c>
+      <c r="N126"/>
       <c r="O126"/>
       <c r="P126"/>
       <c r="Q126"/>
@@ -6477,13 +6075,13 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C127" t="n">
         <v>3.39233444036948</v>
       </c>
       <c r="D127" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E127"/>
       <c r="F127"/>
@@ -6494,9 +6092,7 @@
       <c r="K127"/>
       <c r="L127"/>
       <c r="M127"/>
-      <c r="N127" t="s">
-        <v>23</v>
-      </c>
+      <c r="N127"/>
       <c r="O127"/>
       <c r="P127"/>
       <c r="Q127"/>
@@ -6508,7 +6104,7 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C128" t="n">
         <v>0.083958393924327</v>
@@ -6532,7 +6128,7 @@
         <v>4.66666666666667</v>
       </c>
       <c r="J128" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K128" t="n">
         <v>3.9</v>
@@ -6541,17 +6137,13 @@
         <v>0.079</v>
       </c>
       <c r="M128" t="s">
-        <v>27</v>
-      </c>
-      <c r="N128" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N128"/>
       <c r="O128" t="s">
-        <v>29</v>
-      </c>
-      <c r="P128" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P128"/>
       <c r="Q128"/>
       <c r="R128" t="n">
         <v>2</v>
@@ -6565,13 +6157,13 @@
         <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C129" t="n">
         <v>0.280951330715888</v>
       </c>
       <c r="D129" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E129"/>
       <c r="F129"/>
@@ -6582,9 +6174,7 @@
       <c r="K129"/>
       <c r="L129"/>
       <c r="M129"/>
-      <c r="N129" t="s">
-        <v>23</v>
-      </c>
+      <c r="N129"/>
       <c r="O129"/>
       <c r="P129"/>
       <c r="Q129"/>
@@ -6596,13 +6186,13 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C130" t="n">
         <v>0.354796381067578</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E130"/>
       <c r="F130"/>
@@ -6613,9 +6203,7 @@
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130"/>
-      <c r="N130" t="s">
-        <v>23</v>
-      </c>
+      <c r="N130"/>
       <c r="O130"/>
       <c r="P130"/>
       <c r="Q130"/>
@@ -6627,7 +6215,7 @@
         <v>191</v>
       </c>
       <c r="B131" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C131" t="n">
         <v>4.60202728332953</v>
@@ -6641,22 +6229,18 @@
       <c r="H131"/>
       <c r="I131"/>
       <c r="J131" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K131"/>
       <c r="L131" t="n">
         <v>0.117</v>
       </c>
       <c r="M131" t="s">
-        <v>39</v>
-      </c>
-      <c r="N131" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N131"/>
       <c r="O131"/>
-      <c r="P131" t="s">
-        <v>24</v>
-      </c>
+      <c r="P131"/>
       <c r="Q131"/>
       <c r="R131" t="n">
         <v>3</v>
@@ -6670,7 +6254,7 @@
         <v>192</v>
       </c>
       <c r="B132" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C132" t="n">
         <v>1.36414483729504</v>
@@ -6684,22 +6268,18 @@
       <c r="H132"/>
       <c r="I132"/>
       <c r="J132" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K132"/>
       <c r="L132" t="n">
         <v>0.01</v>
       </c>
       <c r="M132" t="s">
-        <v>37</v>
-      </c>
-      <c r="N132" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N132"/>
       <c r="O132"/>
-      <c r="P132" t="s">
-        <v>24</v>
-      </c>
+      <c r="P132"/>
       <c r="Q132"/>
       <c r="R132" t="n">
         <v>1</v>
@@ -6713,7 +6293,7 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C133" t="n">
         <v>0.308751427439821</v>
@@ -6748,13 +6328,9 @@
       <c r="M133" t="s">
         <v>22</v>
       </c>
-      <c r="N133" t="s">
-        <v>23</v>
-      </c>
+      <c r="N133"/>
       <c r="O133"/>
-      <c r="P133" t="s">
-        <v>24</v>
-      </c>
+      <c r="P133"/>
       <c r="Q133"/>
       <c r="R133" t="n">
         <v>5</v>
@@ -6768,7 +6344,7 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C134" t="n">
         <v>1.27828889618342</v>
@@ -6803,13 +6379,9 @@
       <c r="M134" t="s">
         <v>22</v>
       </c>
-      <c r="N134" t="s">
-        <v>23</v>
-      </c>
+      <c r="N134"/>
       <c r="O134"/>
-      <c r="P134" t="s">
-        <v>24</v>
-      </c>
+      <c r="P134"/>
       <c r="Q134"/>
       <c r="R134" t="n">
         <v>5</v>
@@ -6823,13 +6395,13 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C135" t="n">
         <v>1.10917995566597</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E135"/>
       <c r="F135"/>
@@ -6840,9 +6412,7 @@
       <c r="K135"/>
       <c r="L135"/>
       <c r="M135"/>
-      <c r="N135" t="s">
-        <v>23</v>
-      </c>
+      <c r="N135"/>
       <c r="O135"/>
       <c r="P135"/>
       <c r="Q135"/>
@@ -6854,13 +6424,13 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C136" t="n">
         <v>0.267519623586543</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E136"/>
       <c r="F136"/>
@@ -6871,9 +6441,7 @@
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136"/>
-      <c r="N136" t="s">
-        <v>23</v>
-      </c>
+      <c r="N136"/>
       <c r="O136"/>
       <c r="P136"/>
       <c r="Q136"/>
@@ -6885,13 +6453,13 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C137" t="n">
         <v>0.128865130094505</v>
       </c>
       <c r="D137" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E137"/>
       <c r="F137"/>
@@ -6902,9 +6470,7 @@
       <c r="K137"/>
       <c r="L137"/>
       <c r="M137"/>
-      <c r="N137" t="s">
-        <v>23</v>
-      </c>
+      <c r="N137"/>
       <c r="O137"/>
       <c r="P137"/>
       <c r="Q137"/>
@@ -6916,13 +6482,13 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C138" t="n">
         <v>0.127543165797058</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E138"/>
       <c r="F138"/>
@@ -6933,9 +6499,7 @@
       <c r="K138"/>
       <c r="L138"/>
       <c r="M138"/>
-      <c r="N138" t="s">
-        <v>23</v>
-      </c>
+      <c r="N138"/>
       <c r="O138"/>
       <c r="P138"/>
       <c r="Q138"/>
@@ -6947,13 +6511,13 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C139" t="n">
         <v>0.265492245631509</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E139"/>
       <c r="F139"/>
@@ -6964,9 +6528,7 @@
       <c r="K139"/>
       <c r="L139"/>
       <c r="M139"/>
-      <c r="N139" t="s">
-        <v>23</v>
-      </c>
+      <c r="N139"/>
       <c r="O139"/>
       <c r="P139"/>
       <c r="Q139"/>
@@ -6978,13 +6540,13 @@
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C140" t="n">
         <v>0.578471161474015</v>
       </c>
       <c r="D140" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E140"/>
       <c r="F140"/>
@@ -6995,9 +6557,7 @@
       <c r="K140"/>
       <c r="L140"/>
       <c r="M140"/>
-      <c r="N140" t="s">
-        <v>23</v>
-      </c>
+      <c r="N140"/>
       <c r="O140"/>
       <c r="P140"/>
       <c r="Q140"/>
@@ -7009,13 +6569,13 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C141" t="n">
         <v>0.902412461610448</v>
       </c>
       <c r="D141" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E141"/>
       <c r="F141"/>
@@ -7026,9 +6586,7 @@
       <c r="K141"/>
       <c r="L141"/>
       <c r="M141"/>
-      <c r="N141" t="s">
-        <v>23</v>
-      </c>
+      <c r="N141"/>
       <c r="O141"/>
       <c r="P141"/>
       <c r="Q141"/>
@@ -7040,13 +6598,13 @@
         <v>160</v>
       </c>
       <c r="B142" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C142" t="n">
         <v>0.30530469500922</v>
       </c>
       <c r="D142" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E142"/>
       <c r="F142"/>
@@ -7057,9 +6615,7 @@
       <c r="K142"/>
       <c r="L142"/>
       <c r="M142"/>
-      <c r="N142" t="s">
-        <v>23</v>
-      </c>
+      <c r="N142"/>
       <c r="O142"/>
       <c r="P142"/>
       <c r="Q142"/>
@@ -7071,13 +6627,13 @@
         <v>163</v>
       </c>
       <c r="B143" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C143" t="n">
         <v>0.644132090774326</v>
       </c>
       <c r="D143" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E143"/>
       <c r="F143"/>
@@ -7088,9 +6644,7 @@
       <c r="K143"/>
       <c r="L143"/>
       <c r="M143"/>
-      <c r="N143" t="s">
-        <v>23</v>
-      </c>
+      <c r="N143"/>
       <c r="O143"/>
       <c r="P143"/>
       <c r="Q143"/>
@@ -7102,13 +6656,13 @@
         <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C144" t="n">
         <v>1.93332005176964</v>
       </c>
       <c r="D144" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E144"/>
       <c r="F144"/>
@@ -7119,9 +6673,7 @@
       <c r="K144"/>
       <c r="L144"/>
       <c r="M144"/>
-      <c r="N144" t="s">
-        <v>23</v>
-      </c>
+      <c r="N144"/>
       <c r="O144"/>
       <c r="P144"/>
       <c r="Q144"/>
@@ -7133,13 +6685,13 @@
         <v>170</v>
       </c>
       <c r="B145" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C145" t="n">
         <v>1.26993086962909</v>
       </c>
       <c r="D145" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E145"/>
       <c r="F145"/>
@@ -7150,9 +6702,7 @@
       <c r="K145"/>
       <c r="L145"/>
       <c r="M145"/>
-      <c r="N145" t="s">
-        <v>23</v>
-      </c>
+      <c r="N145"/>
       <c r="O145"/>
       <c r="P145"/>
       <c r="Q145"/>
@@ -7164,13 +6714,13 @@
         <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C146" t="n">
         <v>1.99931626505519</v>
       </c>
       <c r="D146" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E146"/>
       <c r="F146"/>
@@ -7181,9 +6731,7 @@
       <c r="K146"/>
       <c r="L146"/>
       <c r="M146"/>
-      <c r="N146" t="s">
-        <v>23</v>
-      </c>
+      <c r="N146"/>
       <c r="O146"/>
       <c r="P146"/>
       <c r="Q146"/>
@@ -7195,7 +6743,7 @@
         <v>197</v>
       </c>
       <c r="B147" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C147" t="n">
         <v>4.46773481522459</v>
@@ -7209,22 +6757,18 @@
       <c r="H147"/>
       <c r="I147"/>
       <c r="J147" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K147"/>
       <c r="L147" t="n">
         <v>0.093</v>
       </c>
       <c r="M147" t="s">
-        <v>27</v>
-      </c>
-      <c r="N147" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N147"/>
       <c r="O147"/>
-      <c r="P147" t="s">
-        <v>24</v>
-      </c>
+      <c r="P147"/>
       <c r="Q147"/>
       <c r="R147" t="n">
         <v>2</v>
@@ -7238,13 +6782,13 @@
         <v>174</v>
       </c>
       <c r="B148" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C148" t="n">
         <v>1.97234904809386</v>
       </c>
       <c r="D148" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E148"/>
       <c r="F148"/>
@@ -7255,9 +6799,7 @@
       <c r="K148"/>
       <c r="L148"/>
       <c r="M148"/>
-      <c r="N148" t="s">
-        <v>23</v>
-      </c>
+      <c r="N148"/>
       <c r="O148"/>
       <c r="P148"/>
       <c r="Q148"/>
@@ -7269,13 +6811,13 @@
         <v>175</v>
       </c>
       <c r="B149" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C149" t="n">
         <v>3.38292950249716</v>
       </c>
       <c r="D149" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E149"/>
       <c r="F149"/>
@@ -7286,9 +6828,7 @@
       <c r="K149"/>
       <c r="L149"/>
       <c r="M149"/>
-      <c r="N149" t="s">
-        <v>23</v>
-      </c>
+      <c r="N149"/>
       <c r="O149"/>
       <c r="P149"/>
       <c r="Q149"/>
@@ -7300,13 +6840,13 @@
         <v>176</v>
       </c>
       <c r="B150" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C150" t="n">
         <v>5.28539133583158</v>
       </c>
       <c r="D150" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E150"/>
       <c r="F150"/>
@@ -7317,9 +6857,7 @@
       <c r="K150"/>
       <c r="L150"/>
       <c r="M150"/>
-      <c r="N150" t="s">
-        <v>23</v>
-      </c>
+      <c r="N150"/>
       <c r="O150"/>
       <c r="P150"/>
       <c r="Q150"/>
@@ -7331,13 +6869,13 @@
         <v>177</v>
       </c>
       <c r="B151" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C151" t="n">
         <v>1.69340529874312</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E151"/>
       <c r="F151"/>
@@ -7348,9 +6886,7 @@
       <c r="K151"/>
       <c r="L151"/>
       <c r="M151"/>
-      <c r="N151" t="s">
-        <v>23</v>
-      </c>
+      <c r="N151"/>
       <c r="O151"/>
       <c r="P151"/>
       <c r="Q151"/>
@@ -7362,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C152" t="n">
         <v>0.084600162965524</v>
@@ -7386,7 +6922,7 @@
         <v>6.66666666666667</v>
       </c>
       <c r="J152" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K152" t="n">
         <v>4</v>
@@ -7395,19 +6931,15 @@
         <v>0.025</v>
       </c>
       <c r="M152" t="s">
-        <v>37</v>
-      </c>
-      <c r="N152" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N152"/>
       <c r="O152" t="s">
-        <v>29</v>
-      </c>
-      <c r="P152" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P152"/>
       <c r="Q152" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R152" t="n">
         <v>1</v>
@@ -7421,13 +6953,13 @@
         <v>44</v>
       </c>
       <c r="B153" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C153" t="n">
         <v>0.628565181470603</v>
       </c>
       <c r="D153" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E153"/>
       <c r="F153"/>
@@ -7438,9 +6970,7 @@
       <c r="K153"/>
       <c r="L153"/>
       <c r="M153"/>
-      <c r="N153" t="s">
-        <v>23</v>
-      </c>
+      <c r="N153"/>
       <c r="O153"/>
       <c r="P153"/>
       <c r="Q153"/>
@@ -7452,7 +6982,7 @@
         <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C154" t="n">
         <v>0.112604829422039</v>
@@ -7485,15 +7015,11 @@
         <v>0.102</v>
       </c>
       <c r="M154" t="s">
-        <v>39</v>
-      </c>
-      <c r="N154" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N154"/>
       <c r="O154"/>
-      <c r="P154" t="s">
-        <v>24</v>
-      </c>
+      <c r="P154"/>
       <c r="Q154"/>
       <c r="R154" t="n">
         <v>3</v>
@@ -7507,7 +7033,7 @@
         <v>190</v>
       </c>
       <c r="B155" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C155" t="n">
         <v>1.92391922551292</v>
@@ -7540,15 +7066,11 @@
         <v>0.116</v>
       </c>
       <c r="M155" t="s">
-        <v>39</v>
-      </c>
-      <c r="N155" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N155"/>
       <c r="O155"/>
-      <c r="P155" t="s">
-        <v>24</v>
-      </c>
+      <c r="P155"/>
       <c r="Q155"/>
       <c r="R155" t="n">
         <v>3</v>
@@ -7562,7 +7084,7 @@
         <v>196</v>
       </c>
       <c r="B156" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C156" t="n">
         <v>2.61031056287448</v>
@@ -7576,22 +7098,18 @@
       <c r="H156"/>
       <c r="I156"/>
       <c r="J156" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K156"/>
       <c r="L156" t="n">
         <v>0.03</v>
       </c>
       <c r="M156" t="s">
-        <v>37</v>
-      </c>
-      <c r="N156" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N156"/>
       <c r="O156"/>
-      <c r="P156" t="s">
-        <v>40</v>
-      </c>
+      <c r="P156"/>
       <c r="Q156"/>
       <c r="R156" t="n">
         <v>1</v>
@@ -7605,7 +7123,7 @@
         <v>35</v>
       </c>
       <c r="B157" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C157" t="n">
         <v>0.387095788225468</v>
@@ -7638,15 +7156,11 @@
         <v>0.265</v>
       </c>
       <c r="M157" t="s">
-        <v>31</v>
-      </c>
-      <c r="N157" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N157"/>
       <c r="O157"/>
-      <c r="P157" t="s">
-        <v>24</v>
-      </c>
+      <c r="P157"/>
       <c r="Q157"/>
       <c r="R157" t="n">
         <v>4</v>
@@ -7660,13 +7174,13 @@
         <v>40</v>
       </c>
       <c r="B158" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C158" t="n">
         <v>0.199745124488599</v>
       </c>
       <c r="D158" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E158"/>
       <c r="F158"/>
@@ -7677,9 +7191,7 @@
       <c r="K158"/>
       <c r="L158"/>
       <c r="M158"/>
-      <c r="N158" t="s">
-        <v>23</v>
-      </c>
+      <c r="N158"/>
       <c r="O158"/>
       <c r="P158"/>
       <c r="Q158"/>
@@ -7691,13 +7203,13 @@
         <v>41</v>
       </c>
       <c r="B159" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C159" t="n">
         <v>0.177338659310633</v>
       </c>
       <c r="D159" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E159"/>
       <c r="F159"/>
@@ -7708,9 +7220,7 @@
       <c r="K159"/>
       <c r="L159"/>
       <c r="M159"/>
-      <c r="N159" t="s">
-        <v>23</v>
-      </c>
+      <c r="N159"/>
       <c r="O159"/>
       <c r="P159"/>
       <c r="Q159"/>
@@ -7722,13 +7232,13 @@
         <v>42</v>
       </c>
       <c r="B160" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C160" t="n">
         <v>0.707471241358681</v>
       </c>
       <c r="D160" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E160"/>
       <c r="F160"/>
@@ -7739,9 +7249,7 @@
       <c r="K160"/>
       <c r="L160"/>
       <c r="M160"/>
-      <c r="N160" t="s">
-        <v>23</v>
-      </c>
+      <c r="N160"/>
       <c r="O160"/>
       <c r="P160"/>
       <c r="Q160"/>
@@ -7753,13 +7261,13 @@
         <v>72</v>
       </c>
       <c r="B161" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C161" t="n">
         <v>1.05372178863819</v>
       </c>
       <c r="D161" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E161"/>
       <c r="F161"/>
@@ -7770,9 +7278,7 @@
       <c r="K161"/>
       <c r="L161"/>
       <c r="M161"/>
-      <c r="N161" t="s">
-        <v>23</v>
-      </c>
+      <c r="N161"/>
       <c r="O161"/>
       <c r="P161"/>
       <c r="Q161"/>
@@ -7784,13 +7290,13 @@
         <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C162" t="n">
         <v>0.740641606295513</v>
       </c>
       <c r="D162" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E162"/>
       <c r="F162"/>
@@ -7801,9 +7307,7 @@
       <c r="K162"/>
       <c r="L162"/>
       <c r="M162"/>
-      <c r="N162" t="s">
-        <v>23</v>
-      </c>
+      <c r="N162"/>
       <c r="O162"/>
       <c r="P162"/>
       <c r="Q162"/>
@@ -7815,13 +7319,13 @@
         <v>128</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C163" t="n">
         <v>0.675958325071958</v>
       </c>
       <c r="D163" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E163"/>
       <c r="F163"/>
@@ -7832,9 +7336,7 @@
       <c r="K163"/>
       <c r="L163"/>
       <c r="M163"/>
-      <c r="N163" t="s">
-        <v>23</v>
-      </c>
+      <c r="N163"/>
       <c r="O163"/>
       <c r="P163"/>
       <c r="Q163"/>
@@ -7846,13 +7348,13 @@
         <v>129</v>
       </c>
       <c r="B164" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C164" t="n">
         <v>0.199745124488599</v>
       </c>
       <c r="D164" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E164"/>
       <c r="F164"/>
@@ -7863,9 +7365,7 @@
       <c r="K164"/>
       <c r="L164"/>
       <c r="M164"/>
-      <c r="N164" t="s">
-        <v>23</v>
-      </c>
+      <c r="N164"/>
       <c r="O164"/>
       <c r="P164"/>
       <c r="Q164"/>
@@ -7877,13 +7377,13 @@
         <v>130</v>
       </c>
       <c r="B165" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C165" t="n">
         <v>0.177338659310633</v>
       </c>
       <c r="D165" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E165"/>
       <c r="F165"/>
@@ -7894,9 +7394,7 @@
       <c r="K165"/>
       <c r="L165"/>
       <c r="M165"/>
-      <c r="N165" t="s">
-        <v>23</v>
-      </c>
+      <c r="N165"/>
       <c r="O165"/>
       <c r="P165"/>
       <c r="Q165"/>
@@ -7908,13 +7406,13 @@
         <v>139</v>
       </c>
       <c r="B166" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C166" t="n">
         <v>0.253256206371231</v>
       </c>
       <c r="D166" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E166"/>
       <c r="F166"/>
@@ -7925,9 +7423,7 @@
       <c r="K166"/>
       <c r="L166"/>
       <c r="M166"/>
-      <c r="N166" t="s">
-        <v>23</v>
-      </c>
+      <c r="N166"/>
       <c r="O166"/>
       <c r="P166"/>
       <c r="Q166"/>
@@ -7939,13 +7435,13 @@
         <v>151</v>
       </c>
       <c r="B167" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C167" t="n">
         <v>1.60364304392266</v>
       </c>
       <c r="D167" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E167"/>
       <c r="F167"/>
@@ -7956,9 +7452,7 @@
       <c r="K167"/>
       <c r="L167"/>
       <c r="M167"/>
-      <c r="N167" t="s">
-        <v>23</v>
-      </c>
+      <c r="N167"/>
       <c r="O167"/>
       <c r="P167"/>
       <c r="Q167"/>
@@ -7970,13 +7464,13 @@
         <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C168" t="n">
         <v>4.22879869973742</v>
       </c>
       <c r="D168" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E168"/>
       <c r="F168"/>
@@ -7987,9 +7481,7 @@
       <c r="K168"/>
       <c r="L168"/>
       <c r="M168"/>
-      <c r="N168" t="s">
-        <v>23</v>
-      </c>
+      <c r="N168"/>
       <c r="O168"/>
       <c r="P168"/>
       <c r="Q168"/>
@@ -8001,13 +7493,13 @@
         <v>156</v>
       </c>
       <c r="B169" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C169" t="n">
         <v>0.519833848172691</v>
       </c>
       <c r="D169" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E169"/>
       <c r="F169"/>
@@ -8018,9 +7510,7 @@
       <c r="K169"/>
       <c r="L169"/>
       <c r="M169"/>
-      <c r="N169" t="s">
-        <v>23</v>
-      </c>
+      <c r="N169"/>
       <c r="O169"/>
       <c r="P169"/>
       <c r="Q169"/>
@@ -8032,13 +7522,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C170" t="n">
         <v>1.52743561726356</v>
       </c>
       <c r="D170" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E170"/>
       <c r="F170"/>
@@ -8049,9 +7539,7 @@
       <c r="K170"/>
       <c r="L170"/>
       <c r="M170"/>
-      <c r="N170" t="s">
-        <v>23</v>
-      </c>
+      <c r="N170"/>
       <c r="O170"/>
       <c r="P170"/>
       <c r="Q170"/>
@@ -8063,7 +7551,7 @@
         <v>77</v>
       </c>
       <c r="B171" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C171" t="n">
         <v>0.560977963743304</v>
@@ -8096,15 +7584,11 @@
         <v>0.272</v>
       </c>
       <c r="M171" t="s">
-        <v>31</v>
-      </c>
-      <c r="N171" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N171"/>
       <c r="O171"/>
-      <c r="P171" t="s">
-        <v>24</v>
-      </c>
+      <c r="P171"/>
       <c r="Q171"/>
       <c r="R171" t="n">
         <v>4</v>
@@ -8118,13 +7602,13 @@
         <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C172" t="n">
         <v>0.314454724382357</v>
       </c>
       <c r="D172" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E172"/>
       <c r="F172"/>
@@ -8135,9 +7619,7 @@
       <c r="K172"/>
       <c r="L172"/>
       <c r="M172"/>
-      <c r="N172" t="s">
-        <v>23</v>
-      </c>
+      <c r="N172"/>
       <c r="O172"/>
       <c r="P172"/>
       <c r="Q172"/>
@@ -8149,13 +7631,13 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C173" t="n">
         <v>3.39233444036948</v>
       </c>
       <c r="D173" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E173"/>
       <c r="F173"/>
@@ -8166,9 +7648,7 @@
       <c r="K173"/>
       <c r="L173"/>
       <c r="M173"/>
-      <c r="N173" t="s">
-        <v>23</v>
-      </c>
+      <c r="N173"/>
       <c r="O173"/>
       <c r="P173"/>
       <c r="Q173"/>
@@ -8180,13 +7660,13 @@
         <v>59</v>
       </c>
       <c r="B174" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C174" t="n">
         <v>0.232517613987965</v>
       </c>
       <c r="D174" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E174"/>
       <c r="F174"/>
@@ -8197,9 +7677,7 @@
       <c r="K174"/>
       <c r="L174"/>
       <c r="M174"/>
-      <c r="N174" t="s">
-        <v>23</v>
-      </c>
+      <c r="N174"/>
       <c r="O174"/>
       <c r="P174"/>
       <c r="Q174"/>
@@ -8211,13 +7689,13 @@
         <v>76</v>
       </c>
       <c r="B175" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C175" t="n">
         <v>1.93332005176964</v>
       </c>
       <c r="D175" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E175"/>
       <c r="F175"/>
@@ -8228,9 +7706,7 @@
       <c r="K175"/>
       <c r="L175"/>
       <c r="M175"/>
-      <c r="N175" t="s">
-        <v>23</v>
-      </c>
+      <c r="N175"/>
       <c r="O175"/>
       <c r="P175"/>
       <c r="Q175"/>
@@ -8242,7 +7718,7 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C176" t="n">
         <v>0.104218659464854</v>
@@ -8275,15 +7751,11 @@
         <v>0.099</v>
       </c>
       <c r="M176" t="s">
-        <v>39</v>
-      </c>
-      <c r="N176" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N176"/>
       <c r="O176"/>
-      <c r="P176" t="s">
-        <v>24</v>
-      </c>
+      <c r="P176"/>
       <c r="Q176"/>
       <c r="R176" t="n">
         <v>3</v>
@@ -8297,13 +7769,13 @@
         <v>131</v>
       </c>
       <c r="B177" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C177" t="n">
         <v>0.707471241358681</v>
       </c>
       <c r="D177" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E177"/>
       <c r="F177"/>
@@ -8314,9 +7786,7 @@
       <c r="K177"/>
       <c r="L177"/>
       <c r="M177"/>
-      <c r="N177" t="s">
-        <v>23</v>
-      </c>
+      <c r="N177"/>
       <c r="O177"/>
       <c r="P177"/>
       <c r="Q177"/>
@@ -8328,13 +7798,13 @@
         <v>133</v>
       </c>
       <c r="B178" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C178" t="n">
         <v>0.628565181470603</v>
       </c>
       <c r="D178" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E178"/>
       <c r="F178"/>
@@ -8345,9 +7815,7 @@
       <c r="K178"/>
       <c r="L178"/>
       <c r="M178"/>
-      <c r="N178" t="s">
-        <v>23</v>
-      </c>
+      <c r="N178"/>
       <c r="O178"/>
       <c r="P178"/>
       <c r="Q178"/>
@@ -8359,13 +7827,13 @@
         <v>134</v>
       </c>
       <c r="B179" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C179" t="n">
         <v>1.133020789803</v>
       </c>
       <c r="D179" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E179"/>
       <c r="F179"/>
@@ -8376,9 +7844,7 @@
       <c r="K179"/>
       <c r="L179"/>
       <c r="M179"/>
-      <c r="N179" t="s">
-        <v>23</v>
-      </c>
+      <c r="N179"/>
       <c r="O179"/>
       <c r="P179"/>
       <c r="Q179"/>
@@ -8390,13 +7856,13 @@
         <v>148</v>
       </c>
       <c r="B180" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C180" t="n">
         <v>0.232517613987965</v>
       </c>
       <c r="D180" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E180"/>
       <c r="F180"/>
@@ -8407,9 +7873,7 @@
       <c r="K180"/>
       <c r="L180"/>
       <c r="M180"/>
-      <c r="N180" t="s">
-        <v>23</v>
-      </c>
+      <c r="N180"/>
       <c r="O180"/>
       <c r="P180"/>
       <c r="Q180"/>
@@ -8421,13 +7885,13 @@
         <v>157</v>
       </c>
       <c r="B181" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C181" t="n">
         <v>2.93639026467332</v>
       </c>
       <c r="D181" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E181"/>
       <c r="F181"/>
@@ -8438,9 +7902,7 @@
       <c r="K181"/>
       <c r="L181"/>
       <c r="M181"/>
-      <c r="N181" t="s">
-        <v>23</v>
-      </c>
+      <c r="N181"/>
       <c r="O181"/>
       <c r="P181"/>
       <c r="Q181"/>
@@ -8452,13 +7914,13 @@
         <v>158</v>
       </c>
       <c r="B182" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C182" t="n">
         <v>1.36791333053786</v>
       </c>
       <c r="D182" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E182"/>
       <c r="F182"/>
@@ -8469,9 +7931,7 @@
       <c r="K182"/>
       <c r="L182"/>
       <c r="M182"/>
-      <c r="N182" t="s">
-        <v>23</v>
-      </c>
+      <c r="N182"/>
       <c r="O182"/>
       <c r="P182"/>
       <c r="Q182"/>
@@ -8483,13 +7943,13 @@
         <v>167</v>
       </c>
       <c r="B183" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C183" t="n">
         <v>0.566844510287108</v>
       </c>
       <c r="D183" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E183"/>
       <c r="F183"/>
@@ -8500,9 +7960,7 @@
       <c r="K183"/>
       <c r="L183"/>
       <c r="M183"/>
-      <c r="N183" t="s">
-        <v>23</v>
-      </c>
+      <c r="N183"/>
       <c r="O183"/>
       <c r="P183"/>
       <c r="Q183"/>
@@ -8514,13 +7972,13 @@
         <v>168</v>
       </c>
       <c r="B184" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C184" t="n">
         <v>0.314841206310894</v>
       </c>
       <c r="D184" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E184"/>
       <c r="F184"/>
@@ -8531,9 +7989,7 @@
       <c r="K184"/>
       <c r="L184"/>
       <c r="M184"/>
-      <c r="N184" t="s">
-        <v>23</v>
-      </c>
+      <c r="N184"/>
       <c r="O184"/>
       <c r="P184"/>
       <c r="Q184"/>
@@ -8545,7 +8001,7 @@
         <v>24</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C185" t="n">
         <v>0.693032152455266</v>
@@ -8569,7 +8025,7 @@
         <v>5.5</v>
       </c>
       <c r="J185" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K185" t="n">
         <v>4.1</v>
@@ -8578,19 +8034,15 @@
         <v>0.197</v>
       </c>
       <c r="M185" t="s">
-        <v>31</v>
-      </c>
-      <c r="N185" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N185"/>
       <c r="O185" t="s">
-        <v>29</v>
-      </c>
-      <c r="P185" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P185"/>
       <c r="Q185" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R185" t="n">
         <v>4</v>
@@ -8604,7 +8056,7 @@
         <v>29</v>
       </c>
       <c r="B186" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C186" t="n">
         <v>0.414327768743119</v>
@@ -8637,17 +8089,13 @@
         <v>0.072</v>
       </c>
       <c r="M186" t="s">
-        <v>27</v>
-      </c>
-      <c r="N186" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N186"/>
       <c r="O186"/>
-      <c r="P186" t="s">
-        <v>24</v>
-      </c>
+      <c r="P186"/>
       <c r="Q186" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R186" t="n">
         <v>2</v>
@@ -8661,7 +8109,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C187" t="n">
         <v>0.545955609160814</v>
@@ -8682,15 +8130,11 @@
         <v>0.12</v>
       </c>
       <c r="M187" t="s">
-        <v>39</v>
-      </c>
-      <c r="N187" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N187"/>
       <c r="O187"/>
-      <c r="P187" t="s">
-        <v>24</v>
-      </c>
+      <c r="P187"/>
       <c r="Q187"/>
       <c r="R187" t="n">
         <v>3</v>
@@ -8704,7 +8148,7 @@
         <v>16</v>
       </c>
       <c r="B188" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C188" t="n">
         <v>0.087944134261629</v>
@@ -8728,7 +8172,7 @@
         <v>6</v>
       </c>
       <c r="J188" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K188" t="n">
         <v>4</v>
@@ -8737,17 +8181,13 @@
         <v>0.073</v>
       </c>
       <c r="M188" t="s">
-        <v>27</v>
-      </c>
-      <c r="N188" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N188"/>
       <c r="O188" t="s">
-        <v>29</v>
-      </c>
-      <c r="P188" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P188"/>
       <c r="Q188"/>
       <c r="R188" t="n">
         <v>2</v>
@@ -8761,7 +8201,7 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C189" t="n">
         <v>0.157002226146366</v>
@@ -8794,15 +8234,11 @@
         <v>0.137</v>
       </c>
       <c r="M189" t="s">
-        <v>39</v>
-      </c>
-      <c r="N189" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N189"/>
       <c r="O189"/>
-      <c r="P189" t="s">
-        <v>24</v>
-      </c>
+      <c r="P189"/>
       <c r="Q189"/>
       <c r="R189" t="n">
         <v>3</v>
@@ -8816,7 +8252,7 @@
         <v>200</v>
       </c>
       <c r="B190" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C190" t="n">
         <v>0.150662310958689</v>
@@ -8837,17 +8273,13 @@
         <v>0.139</v>
       </c>
       <c r="M190" t="s">
-        <v>31</v>
-      </c>
-      <c r="N190" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N190"/>
       <c r="O190" t="s">
-        <v>29</v>
-      </c>
-      <c r="P190" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P190"/>
       <c r="Q190"/>
       <c r="R190" t="n">
         <v>4</v>
@@ -8861,7 +8293,7 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C191" t="n">
         <v>4.00071374772519</v>
@@ -8882,15 +8314,11 @@
         <v>0.004</v>
       </c>
       <c r="M191" t="s">
-        <v>37</v>
-      </c>
-      <c r="N191" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N191"/>
       <c r="O191"/>
-      <c r="P191" t="s">
-        <v>24</v>
-      </c>
+      <c r="P191"/>
       <c r="Q191"/>
       <c r="R191" t="n">
         <v>1</v>
@@ -8904,7 +8332,7 @@
         <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C192" t="n">
         <v>0.136038341851693</v>
@@ -8937,17 +8365,13 @@
         <v>0.1</v>
       </c>
       <c r="M192" t="s">
-        <v>39</v>
-      </c>
-      <c r="N192" t="s">
-        <v>23</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N192"/>
       <c r="O192" t="s">
-        <v>29</v>
-      </c>
-      <c r="P192" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P192"/>
       <c r="Q192"/>
       <c r="R192" t="n">
         <v>3</v>
@@ -8961,7 +8385,7 @@
         <v>189</v>
       </c>
       <c r="B193" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C193" t="n">
         <v>0.911519150006035</v>
@@ -8982,15 +8406,11 @@
         <v>0.004</v>
       </c>
       <c r="M193" t="s">
-        <v>37</v>
-      </c>
-      <c r="N193" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N193"/>
       <c r="O193"/>
-      <c r="P193" t="s">
-        <v>24</v>
-      </c>
+      <c r="P193"/>
       <c r="Q193"/>
       <c r="R193" t="n">
         <v>1</v>
@@ -9004,7 +8424,7 @@
         <v>26</v>
       </c>
       <c r="B194" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C194" t="n">
         <v>0.938426047944722</v>
@@ -9028,7 +8448,7 @@
         <v>4.66666666666667</v>
       </c>
       <c r="J194" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K194" t="n">
         <v>3.9</v>
@@ -9039,13 +8459,9 @@
       <c r="M194" t="s">
         <v>22</v>
       </c>
-      <c r="N194" t="s">
-        <v>23</v>
-      </c>
+      <c r="N194"/>
       <c r="O194"/>
-      <c r="P194" t="s">
-        <v>24</v>
-      </c>
+      <c r="P194"/>
       <c r="Q194"/>
       <c r="R194" t="n">
         <v>5</v>
@@ -9059,7 +8475,7 @@
         <v>28</v>
       </c>
       <c r="B195" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C195" t="n">
         <v>0.571027210618175</v>
@@ -9092,17 +8508,13 @@
         <v>0.092</v>
       </c>
       <c r="M195" t="s">
-        <v>27</v>
-      </c>
-      <c r="N195" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N195"/>
       <c r="O195"/>
-      <c r="P195" t="s">
-        <v>24</v>
-      </c>
+      <c r="P195"/>
       <c r="Q195" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R195" t="n">
         <v>2</v>
@@ -9116,7 +8528,7 @@
         <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C196" t="n">
         <v>0.231720124099592</v>
@@ -9149,19 +8561,15 @@
         <v>0.047</v>
       </c>
       <c r="M196" t="s">
-        <v>27</v>
-      </c>
-      <c r="N196" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N196"/>
       <c r="O196" t="s">
-        <v>29</v>
-      </c>
-      <c r="P196" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P196"/>
       <c r="Q196" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R196" t="n">
         <v>2</v>
@@ -9175,7 +8583,7 @@
         <v>111</v>
       </c>
       <c r="B197" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C197" t="n">
         <v>0.067508918031543</v>
@@ -9208,17 +8616,13 @@
         <v>0.038</v>
       </c>
       <c r="M197" t="s">
-        <v>27</v>
-      </c>
-      <c r="N197" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N197"/>
       <c r="O197" t="s">
-        <v>29</v>
-      </c>
-      <c r="P197" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P197"/>
       <c r="Q197"/>
       <c r="R197" t="n">
         <v>2</v>
@@ -9232,7 +8636,7 @@
         <v>34</v>
       </c>
       <c r="B198" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C198" t="n">
         <v>1.04098068902248</v>
@@ -9256,7 +8660,7 @@
         <v>5.06451612903226</v>
       </c>
       <c r="J198" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K198" t="n">
         <v>4</v>
@@ -9267,13 +8671,9 @@
       <c r="M198" t="s">
         <v>22</v>
       </c>
-      <c r="N198" t="s">
-        <v>23</v>
-      </c>
+      <c r="N198"/>
       <c r="O198"/>
-      <c r="P198" t="s">
-        <v>24</v>
-      </c>
+      <c r="P198"/>
       <c r="Q198"/>
       <c r="R198" t="n">
         <v>5</v>
@@ -9287,7 +8687,7 @@
         <v>180</v>
       </c>
       <c r="B199" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C199" t="n">
         <v>6.29636351747654</v>
@@ -9301,22 +8701,18 @@
       <c r="H199"/>
       <c r="I199"/>
       <c r="J199" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K199"/>
       <c r="L199" t="n">
         <v>0.129</v>
       </c>
       <c r="M199" t="s">
-        <v>39</v>
-      </c>
-      <c r="N199" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N199"/>
       <c r="O199"/>
-      <c r="P199" t="s">
-        <v>40</v>
-      </c>
+      <c r="P199"/>
       <c r="Q199"/>
       <c r="R199" t="n">
         <v>3</v>
